--- a/Indice versioni.xlsx
+++ b/Indice versioni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gessica.dilenardo\Documents\Power BI\Elaborati\BI_Ordini_fornitori_ricezioni\Versionamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4366B9F3-1B57-460E-BD31-054463388EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED7D7DD-3FE5-4761-9487-A74D24E380AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-270" windowWidth="29040" windowHeight="15720" xr2:uid="{E8661EE8-0424-44C1-8E9C-476E929CF0A3}"/>
   </bookViews>
@@ -75,7 +75,8 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>- Modifica origine tabella giacenze Galileo (statica Excel)</t>
+    <t>- Modifica origine tabella giacenze Galileo (statica Excel)
+- Creato Repository e inserita revisione nel file</t>
   </si>
 </sst>
 </file>
@@ -457,7 +458,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +539,7 @@
         <v>45641</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
